--- a/data/trans_camb/P25_5-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_5-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-4,28</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 13,39</t>
+          <t>-6,09; 17,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 15,54</t>
+          <t>-3,32; 24,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 5,41</t>
+          <t>-6,37; 17,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 1,71</t>
+          <t>-10,35; 6,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 7,28</t>
+          <t>-12,28; 4,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 6,74</t>
+          <t>-13,03; 2,1</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; 8,12</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 11,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,87; 7,14</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>115,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>189,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-25,22%</t>
+          <t>120,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-57,65%</t>
+          <t>-32,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>-62,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,87%</t>
+          <t>-68,62%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12,17%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21,15%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-7,06%</t>
         </is>
       </c>
     </row>
@@ -715,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-87,96; 660,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,38; 182,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 91,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,02; 177,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,71; 183,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-83,24; 620,02</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 857,62</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>4,43</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,92</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 7,37</t>
+          <t>-14,41; 9,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 6,82</t>
+          <t>-12,88; 11,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 3,82</t>
+          <t>-13,23; 11,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 2,52</t>
+          <t>-8,07; 3,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 3,69</t>
+          <t>-10,22; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 2,72</t>
+          <t>-2,79; 13,81</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,71; 4,65</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-7,32; 4,5</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 9,51</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,09%</t>
+          <t>-21,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,97%</t>
+          <t>-7,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-43,76%</t>
+          <t>-6,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-58,42%</t>
+          <t>-53,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-26,69%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-35,86%</t>
+          <t>134,24%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-28,71%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-28,66%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34,08%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-88,57; 511,9</t>
+          <t>-100,0; 439,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-88,62; 470,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 251,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 224,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,13; 112,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,07; 100,62</t>
+          <t>-91,54; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-85,52; 226,38</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-84,94; 225,58</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-58,43; 357,14</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 4,16</t>
+          <t>-13,0; 5,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 6,16</t>
+          <t>-8,58; 13,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 6,74</t>
+          <t>-10,32; 10,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 8,23</t>
+          <t>-9,98; 7,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 3,73</t>
+          <t>-6,73; 11,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 5,51</t>
+          <t>-6,59; 15,5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,98; 3,61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,94; 9,35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 10,65</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-35,21%</t>
+          <t>-40,61%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,21%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>-19,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-13,87%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>20,73%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-27,34%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>21,31%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13,29%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-82,92; 122,97</t>
+          <t>-100,0; 166,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,4; 159,72</t>
+          <t>-73,0; 333,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,41; 175,28</t>
+          <t>-82,57; 318,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,41; 181,79</t>
+          <t>-68,36; 155,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,41; 80,89</t>
+          <t>-52,57; 223,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,85; 108,53</t>
+          <t>-54,21; 282,2</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-68,41; 80,1</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-41,15; 157,34</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-46,5; 183,13</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 10,14</t>
+          <t>-7,27; 10,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 10,46</t>
+          <t>-5,45; 13,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 3,5</t>
+          <t>-6,39; 11,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 6,89</t>
+          <t>-10,78; 5,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 4,8</t>
+          <t>-8,26; 9,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 6,72</t>
+          <t>-8,69; 8,24</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-6,23; 5,86</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 9,29</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-5,16; 7,33</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>46,28%</t>
+          <t>55,07%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-23,18%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>-20,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>-2,55%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-1,89%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>26,64%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>10,46%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 277,37</t>
+          <t>-63,31; 343,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,9; 280,38</t>
+          <t>-49,8; 382,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,4; 72,31</t>
+          <t>-61,39; 365,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 140,06</t>
+          <t>-70,47; 80,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 96,5</t>
+          <t>-59,43; 132,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,67; 128,37</t>
+          <t>-61,55; 122,98</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-50,08; 87,89</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-29,62; 142,82</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-43,38; 110,18</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,7</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,19</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 4,71</t>
+          <t>-25,81; 2,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 9,38</t>
+          <t>-19,28; 16,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 8,2</t>
+          <t>-23,81; 10,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 6,53</t>
+          <t>-10,86; 8,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 3,99</t>
+          <t>-13,21; 4,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 5,5</t>
+          <t>-11,68; 6,99</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-16,55; 2,52</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-12,65; 8,8</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-13,89; 6,72</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-33,82%</t>
+          <t>-70,69%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-13,91%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>-32,22%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>-2,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-9,98%</t>
+          <t>-42,13%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-5,3%</t>
+          <t>-18,72%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-47,45%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-11,89%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-28,11%</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 187,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1349,22 +1665,37 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-61,71; 432,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-73,01; 356,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,67; 119,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-76,29; 154,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 98,12</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 344,08</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 288,51</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>6,63</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-2,42</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5,11</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 4,75</t>
+          <t>-8,78; 4,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 5,24</t>
+          <t>-8,48; 6,91</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 2,62</t>
+          <t>-6,94; 10,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 17,27</t>
+          <t>-17,67; 12,35</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 2,11</t>
+          <t>-17,55; 13,27</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 10,37</t>
+          <t>-10,21; 39,05</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-11,21; 7,05</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-11,21; 6,87</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-6,03; 24,49</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-27,94%</t>
+          <t>-12,78%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-23,77%</t>
+          <t>-9,02%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-57,17%</t>
+          <t>65,77%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>48,63%</t>
+          <t>-35,39%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-47,0%</t>
+          <t>-20,91%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>59,09%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-32,49%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-19,55%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>68,68%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 482,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 538,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 175,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-56,52; 436,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-87,89; 71,39</t>
+          <t>-100,0; 517,89</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-53,43; 244,07</t>
+          <t>-83,14; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 295,51</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-88,01; 265,41</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-72,22; 723,8</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,81</t>
+          <t>-5,63; 2,94</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 3,46</t>
+          <t>-3,02; 7,03</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 1,48</t>
+          <t>-4,34; 5,2</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 3,49</t>
+          <t>-6,17; 1,81</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,2</t>
+          <t>-5,26; 2,89</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 2,66</t>
+          <t>-2,84; 9,23</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 1,15</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 3,51</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 5,35</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>-16,1%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>27,47%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-20,54%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>-24,38%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-13,56%</t>
+          <t>-12,07%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>20,16%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-20,98%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>14,73%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-46,29; 53,89</t>
+          <t>-57,81; 71,47</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 66,35</t>
+          <t>-37,5; 136,75</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-50,22; 25,21</t>
+          <t>-44,57; 115,13</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-33,46; 63,91</t>
+          <t>-58,25; 32,39</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-37,06; 20,54</t>
+          <t>-49,02; 45,81</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-26,71; 45,0</t>
+          <t>-33,21; 134,22</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-51,07; 19,31</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-33,74; 57,22</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-30,41; 79,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
